--- a/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Predictors.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Predictors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">ACP5</t>
   </si>
@@ -140,9 +140,21 @@
     <t xml:space="preserve">COCH</t>
   </si>
   <si>
+    <t xml:space="preserve">FADS2</t>
+  </si>
+  <si>
     <t xml:space="preserve">FGFR1</t>
   </si>
   <si>
+    <t xml:space="preserve">GLTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">IGLC1</t>
   </si>
   <si>
@@ -170,21 +182,42 @@
     <t xml:space="preserve">SPON1</t>
   </si>
   <si>
+    <t xml:space="preserve">TCL1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPPP3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VPREB3</t>
   </si>
   <si>
+    <t xml:space="preserve">WASL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADIPOR2</t>
   </si>
   <si>
     <t xml:space="preserve">ATP6V0E1</t>
   </si>
   <si>
+    <t xml:space="preserve">ATRX</t>
+  </si>
+  <si>
     <t xml:space="preserve">BCL2A1</t>
   </si>
   <si>
+    <t xml:space="preserve">BGN</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD40</t>
   </si>
   <si>
+    <t xml:space="preserve">CDCA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDX39A</t>
   </si>
   <si>
@@ -194,9 +227,15 @@
     <t xml:space="preserve">EIF4H</t>
   </si>
   <si>
+    <t xml:space="preserve">ERBB2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESR1</t>
   </si>
   <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
     <t xml:space="preserve">F7</t>
   </si>
   <si>
@@ -221,15 +260,33 @@
     <t xml:space="preserve">HGF</t>
   </si>
   <si>
+    <t xml:space="preserve">HIST3H2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNF4A</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDH3B</t>
   </si>
   <si>
+    <t xml:space="preserve">IGF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTB</t>
   </si>
   <si>
     <t xml:space="preserve">MARCH6</t>
   </si>
   <si>
+    <t xml:space="preserve">MCM4</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYH11</t>
   </si>
   <si>
@@ -239,6 +296,9 @@
     <t xml:space="preserve">NEK2</t>
   </si>
   <si>
+    <t xml:space="preserve">NF1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NR3C1</t>
   </si>
   <si>
@@ -249,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">PLEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRMT2</t>
   </si>
   <si>
     <t xml:space="preserve">PRPF31</t>
@@ -1471,6 +1534,111 @@
         <v>140</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
